--- a/excelforms/وردية.xlsx
+++ b/excelforms/وردية.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23929"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lobna\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\xampp\htdocs\payroll\excelforms\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D72DA39E-351D-4253-B6F1-24B081BE9F95}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{727F26B0-8AA4-454D-879E-8928CFF981E9}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -86,13 +86,18 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="2" formatCode="0.00"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -113,8 +118,8 @@
     <tableColumn id="2" xr3:uid="{6123294E-83E4-4232-9ADB-4F0873F170E2}" name="الاسم"/>
     <tableColumn id="3" xr3:uid="{9E062A66-EB9E-4833-821A-4607D845A9F4}" name="عدد ايام الورادى"/>
     <tableColumn id="4" xr3:uid="{F2E4ED7C-17EF-4D2F-9B80-651A45868C8A}" name="الفئة"/>
-    <tableColumn id="5" xr3:uid="{C936564F-B195-4C14-9035-AA1FB0E5662D}" name="المقابل النقدى">
-      <calculatedColumnFormula>Table1[[#This Row],[الفئة]]*Table1[[#This Row],[عدد ايام الورادى]]</calculatedColumnFormula>
+    <tableColumn id="5" xr3:uid="{C936564F-B195-4C14-9035-AA1FB0E5662D}" name="المقابل النقدى" dataDxfId="0">
+      <calculatedColumnFormula>#REF!</calculatedColumnFormula>
     </tableColumn>
     <tableColumn id="6" xr3:uid="{98934765-0C95-4192-B23C-D89EBFACD255}" name="ملاحظات"/>
   </tableColumns>
@@ -388,7 +393,7 @@
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -397,7 +402,7 @@
     <col min="2" max="2" width="12.7109375" customWidth="1"/>
     <col min="3" max="3" width="15" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="9.42578125" customWidth="1"/>
-    <col min="5" max="5" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="14.28515625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -414,7 +419,7 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
       <c r="F1" t="s">
@@ -426,14 +431,13 @@
         <v>1455</v>
       </c>
       <c r="C2">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D2">
         <v>75</v>
       </c>
-      <c r="E2">
-        <f>Table1[[#This Row],[الفئة]]*Table1[[#This Row],[عدد ايام الورادى]]</f>
-        <v>825</v>
+      <c r="E2" s="1">
+        <v>750</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
@@ -446,8 +450,7 @@
       <c r="D3">
         <v>75</v>
       </c>
-      <c r="E3">
-        <f>Table1[[#This Row],[الفئة]]*Table1[[#This Row],[عدد ايام الورادى]]</f>
+      <c r="E3" s="1">
         <v>150</v>
       </c>
     </row>
@@ -461,8 +464,7 @@
       <c r="D4">
         <v>75</v>
       </c>
-      <c r="E4">
-        <f>Table1[[#This Row],[الفئة]]*Table1[[#This Row],[عدد ايام الورادى]]</f>
+      <c r="E4" s="1">
         <v>225</v>
       </c>
     </row>
